--- a/Test protocol/Sprint_2/DK/System Test protocol_Braille DP2_Sprint 2_DK.xlsx
+++ b/Test protocol/Sprint_2/DK/System Test protocol_Braille DP2_Sprint 2_DK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssp.DBBINT\Documents\GitHub\danishbraille\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_2\DK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -759,12 +759,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Farve3" xfId="4" builtinId="38"/>
-    <cellStyle name="Link" xfId="5" builtinId="8"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Overskrift 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,9 +785,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -825,7 +825,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -897,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1054,99 +1054,99 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
     </row>
-    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
     </row>
   </sheetData>
@@ -1169,16 +1169,16 @@
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1187,13 +1187,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1232,21 +1232,21 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1293,14 +1293,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1309,25 +1309,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1383,32 +1383,32 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1494,19 +1494,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1515,13 +1515,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1568,21 +1568,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>76</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1700,18 +1700,18 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C28" s="44"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>82</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>83</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1809,18 +1809,18 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>74</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>62</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -1928,18 +1928,18 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C51" s="43"/>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="57" t="s">
         <v>62</v>
       </c>
@@ -2005,32 +2005,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>5</v>
       </c>
@@ -2088,39 +2088,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="34"/>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C73" s="43"/>
     </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E76" s="64"/>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>64</v>
@@ -2188,14 +2188,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="34"/>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -2213,43 +2213,43 @@
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
       <c r="C82" s="50"/>
     </row>
-    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="51"/>
       <c r="B83" s="52"/>
       <c r="C83" s="53"/>
     </row>
-    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="51"/>
       <c r="B84" s="52"/>
       <c r="C84" s="55"/>
     </row>
-    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="35"/>
     </row>
-    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="28"/>
       <c r="C88" s="34"/>
     </row>
-    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
     </row>
